--- a/Info/ESP32 Pins.xlsx
+++ b/Info/ESP32 Pins.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poved\OneDrive - Blackstone\Maestria\Semestre I\Fabricacion SE\Microcontrolador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poved\OneDrive - Blackstone\Maestria\Semestre I\Fabricacion SE\SE_Datalog\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="1740" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="WROOM" sheetId="2" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="330">
   <si>
     <t>ADC</t>
   </si>
@@ -1241,6 +1241,9 @@
   </si>
   <si>
     <t>BOOT OPTION</t>
+  </si>
+  <si>
+    <t>ENTRADAS</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1313,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1359,6 +1362,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1372,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1404,6 +1413,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1728,7 +1739,7 @@
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,7 +2435,7 @@
       <c r="A18" s="3">
         <v>27</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="20" t="s">
@@ -2453,7 +2464,7 @@
       <c r="A19" s="3">
         <v>28</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -2737,7 +2748,7 @@
       <c r="A30" s="3">
         <v>6</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2772,7 +2783,7 @@
       <c r="A31" s="3">
         <v>7</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2807,7 +2818,7 @@
       <c r="A32" s="3">
         <v>4</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2842,7 +2853,7 @@
       <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2911,6 +2922,10 @@
       <c r="T41" s="6"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="C42" s="14" t="s">
+        <v>329</v>
+      </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -2933,7 +2948,7 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A29" sqref="A29:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,7 +3115,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3138,7 +3153,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -3176,7 +3191,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -3214,7 +3229,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3252,7 +3267,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -3287,7 +3302,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -3325,7 +3340,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -4567,7 +4582,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>228</v>
       </c>
@@ -4602,7 +4617,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>230</v>
       </c>
@@ -4672,7 +4687,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>231</v>
       </c>
@@ -4707,7 +4722,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -4961,7 +4976,9 @@
   <autoFilter ref="A1:L86">
     <filterColumn colId="2">
       <filters>
+        <filter val="I"/>
         <filter val="I/O"/>
+        <filter val="O"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Info/ESP32 Pins.xlsx
+++ b/Info/ESP32 Pins.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="2670" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WROOM" sheetId="2" r:id="rId1"/>
     <sheet name="ESP32 Chip" sheetId="5" r:id="rId2"/>
+    <sheet name="LORA RFM95" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ESP32 Chip'!$A$1:$L$86</definedName>
@@ -253,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="360">
   <si>
     <t>ADC</t>
   </si>
@@ -1244,13 +1245,103 @@
   </si>
   <si>
     <t>ENTRADAS</t>
+  </si>
+  <si>
+    <t>ENTRASA Y SALIDAS</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>SPI Data output</t>
+  </si>
+  <si>
+    <t>SPI Data input</t>
+  </si>
+  <si>
+    <t>SPI Clock input</t>
+  </si>
+  <si>
+    <t>SPI Chip select input</t>
+  </si>
+  <si>
+    <t>Reset trigger input</t>
+  </si>
+  <si>
+    <t>Digital I/O, software configured</t>
+  </si>
+  <si>
+    <t>RF signal output/input.</t>
+  </si>
+  <si>
+    <t>SCK</t>
+  </si>
+  <si>
+    <t>NSS</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>DIO5</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>DIO3</t>
+  </si>
+  <si>
+    <t>DIO4</t>
+  </si>
+  <si>
+    <t>3,3V</t>
+  </si>
+  <si>
+    <t>DIO0</t>
+  </si>
+  <si>
+    <t>DIO1</t>
+  </si>
+  <si>
+    <t>DIO2</t>
+  </si>
+  <si>
+    <t>SUPPLY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>ANTENA</t>
+  </si>
+  <si>
+    <t>SPI TO ESP32</t>
+  </si>
+  <si>
+    <t>POWER AND GROUND</t>
+  </si>
+  <si>
+    <t>reservas de Io a conector de la board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,8 +1403,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1368,6 +1466,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1381,7 +1515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1415,6 +1549,33 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1738,8 +1899,8 @@
   </sheetPr>
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,7 +2549,7 @@
       <c r="A17" s="3">
         <v>23</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2618,7 +2779,7 @@
       <c r="A25" s="3">
         <v>10</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2670,7 +2831,7 @@
       <c r="A27" s="3">
         <v>12</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2696,7 +2857,7 @@
       <c r="A28" s="3">
         <v>8</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2722,7 +2883,7 @@
       <c r="A29" s="3">
         <v>9</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2929,6 +3090,10 @@
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="25"/>
+      <c r="C43" s="14" t="s">
+        <v>330</v>
+      </c>
       <c r="G43" s="8"/>
     </row>
   </sheetData>
@@ -2948,7 +3113,7 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:H31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4984,4 +5149,288 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>4</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>5</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>6</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>10</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>11</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>12</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>13</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>14</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="37"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>15</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>16</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>